--- a/Scripts/my_data.xlsx
+++ b/Scripts/my_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
   <si>
     <t>name</t>
   </si>
@@ -49,7 +49,7 @@
     <t>row top-cat-block figure-wrapper</t>
   </si>
   <si>
-    <t>articleBody</t>
+    <t>content count-br</t>
   </si>
   <si>
     <t>true</t>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>nEjlO</t>
+  </si>
+  <si>
+    <t>_s30J clearfix</t>
   </si>
   <si>
     <t>false</t>
@@ -135,7 +138,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +163,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="&quot;Droid Sans Mono&quot;"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -224,10 +233,10 @@
     <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -616,30 +625,30 @@
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>12</v>
@@ -647,22 +656,22 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G5" s="3" t="s">
         <v>12</v>
@@ -670,66 +679,66 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
       <c r="A6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="17.25">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
       <c r="A7" s="5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G7" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
       <c r="A8" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>12</v>

--- a/Scripts/my_data.xlsx
+++ b/Scripts/my_data.xlsx
@@ -14,11 +14,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="44">
   <si>
     <t>name</t>
   </si>
   <si>
+    <t>language</t>
+  </si>
+  <si>
     <t>url</t>
   </si>
   <si>
@@ -40,6 +43,9 @@
     <t>ANI</t>
   </si>
   <si>
+    <t>english</t>
+  </si>
+  <si>
     <t>https://aninews.in/</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>JAGRAN</t>
   </si>
   <si>
+    <t>hindi</t>
+  </si>
+  <si>
     <t>https://www.jagran.com/</t>
   </si>
   <si>
@@ -112,6 +121,9 @@
     <t>TV9</t>
   </si>
   <si>
+    <t>kannada</t>
+  </si>
+  <si>
     <t>https://tv9kannada.com/</t>
   </si>
   <si>
@@ -124,10 +136,13 @@
     <t>MANORAMA</t>
   </si>
   <si>
+    <t>malayalam</t>
+  </si>
+  <si>
     <t>https://www.manoramaonline.com/news/latest-news.html</t>
   </si>
   <si>
-    <t>story-col-list-section</t>
+    <t>cmp-story-list</t>
   </si>
   <si>
     <t>rtearticle text</t>
@@ -219,7 +234,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -241,6 +256,18 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -547,19 +574,20 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="7" width="45.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="32.14785714285715" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="12.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="31.005" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="8" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="11" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="45.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="10" width="32.14785714285715" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="12.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="10" width="31.005" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="12" width="12.43357142857143" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -584,164 +612,190 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
       <c r="A3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>12</v>
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
       <c r="A5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="A6" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>12</v>
+      <c r="B6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>14</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>12</v>
+      <c r="A8" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
